--- a/server/prices/husqvarna/Products_HCP.xlsx
+++ b/server/prices/husqvarna/Products_HCP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>Код изделия</t>
   </si>
@@ -522,12 +522,6 @@
     <t>9665635-01</t>
   </si>
   <si>
-    <t>WT15 Бак с электронасосом</t>
-  </si>
-  <si>
-    <t>9667083-01</t>
-  </si>
-  <si>
     <t>9671957-01</t>
   </si>
   <si>
@@ -672,9 +666,6 @@
     <t>5877684-01</t>
   </si>
   <si>
-    <t>5877684-02</t>
-  </si>
-  <si>
     <t>K970 III/14"</t>
   </si>
   <si>
@@ -709,9 +700,6 @@
   </si>
   <si>
     <t>K1270 Rail 16”+RA10S</t>
-  </si>
-  <si>
-    <t>9670463-01</t>
   </si>
   <si>
     <t>9670711-01</t>
@@ -911,12 +899,6 @@
     <t>A1000</t>
   </si>
   <si>
-    <t>A2000</t>
-  </si>
-  <si>
-    <t>9676722-02</t>
-  </si>
-  <si>
     <r>
       <t>DS 500</t>
     </r>
@@ -1264,9 +1246,6 @@
     <t>9679103-09</t>
   </si>
   <si>
-    <t>Тележка K970/K1270 (кроме K1270-II)</t>
-  </si>
-  <si>
     <t>9678560-05</t>
   </si>
   <si>
@@ -1400,9 +1379,6 @@
     <t>Машина бетоноотделочная CT36 8A</t>
   </si>
   <si>
-    <t xml:space="preserve"> Действителен с 02.10.2021г. ( Цены указаны в рублях)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Преобразователь частоты CF11, 230В-1-50Гц/42В-3-200Гц </t>
   </si>
   <si>
@@ -1415,40 +1391,43 @@
     <t>Преобразователь частоты CF 67T, 400В-3-50Гц/42В-3-200Гц</t>
   </si>
   <si>
-    <t>benzoinstrument_otreznye-mashiny</t>
-  </si>
-  <si>
-    <t>setevoy-instrument_otreznye-mashiny</t>
-  </si>
-  <si>
-    <t>pnevmoinstrument_otreznye-mashiny</t>
-  </si>
-  <si>
-    <t>gidravlicheskiy-instrument_otreznye-mashiny</t>
-  </si>
-  <si>
-    <t>burenie</t>
-  </si>
-  <si>
-    <t>shvonarezchiki</t>
-  </si>
-  <si>
-    <t>stroitelnoe-oborudovanie_drugoe</t>
-  </si>
-  <si>
-    <t>shlifovanie-betona</t>
-  </si>
-  <si>
-    <t>sbor-pyli-i-shlama</t>
-  </si>
-  <si>
-    <t>uplotnenie-grunta-i-betona</t>
-  </si>
-  <si>
-    <t>Категория</t>
-  </si>
-  <si>
-    <t>Наименование</t>
+    <t>9678387-11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HTC 270EG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>220-240В, 1-фазный,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2,2 kW</t>
+    </r>
+  </si>
+  <si>
+    <t>9679819-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Действителен с 01.02.2022г. ( Цены указаны в рублях)</t>
+  </si>
+  <si>
+    <t>Тележка K970/K1270</t>
+  </si>
+  <si>
+    <t>5996098-01</t>
   </si>
 </sst>
 </file>
@@ -1613,12 +1592,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1722,7 +1707,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
@@ -1778,6 +1763,22 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal 2 3 2" xfId="1"/>
@@ -1806,13 +1807,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1820,7 +1821,7 @@
         <xdr:cNvPr id="20121" name="Picture 3" descr="\\Stendahls@Stendahls Server\Server 6\ Dimas 640\640-0083 HU konferens\BILDER\Dimaslogo.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2BA0F5-41A9-4EB4-BAE6-112CE227117C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2BA0F5-41A9-4EB4-BAE6-112CE227117C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,13 +1891,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1904,7 +1905,7 @@
         <xdr:cNvPr id="20122" name="Picture 4" descr="\\Stendahls@Stendahls Server\Server 6\ Dimas 640\640-0083 HU konferens\BILDER\Dimaslogo.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D385545B-2BCC-485E-97AD-7DCFA7119F43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D385545B-2BCC-485E-97AD-7DCFA7119F43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1989,7 @@
         <xdr:cNvPr id="20124" name="Picture 19" descr="HCP_RGB%20small">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3483F1-2337-408D-80B7-ACE95616A0C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B3483F1-2337-408D-80B7-ACE95616A0C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,10 +2398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD124"/>
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2410,17 +2411,17 @@
     <col min="3" max="3" width="15.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="12" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="B1" s="25"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="13.5">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="13.5">
       <c r="B2" s="25"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2429,7 +2430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
+    <row r="3" spans="1:8" s="2" customFormat="1">
       <c r="B3" s="25"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -2438,7 +2439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="B4" s="25"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2447,7 +2448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1">
+    <row r="5" spans="1:8" s="2" customFormat="1">
       <c r="B5" s="25"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -2456,7 +2457,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="B6" s="25"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2465,7 +2466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1">
+    <row r="7" spans="1:8" s="2" customFormat="1">
       <c r="B7" s="25"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2474,14 +2475,14 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="13.5" thickBot="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="B8" s="25"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
       <c r="B9" s="26"/>
       <c r="C9" s="17"/>
@@ -2489,14 +2490,14 @@
       <c r="E9" s="17"/>
       <c r="F9" s="27"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="B10" s="25"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="26.25" thickBot="1">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="26.25" thickBot="1">
       <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
@@ -2504,13 +2505,11 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B12" s="6" t="s">
-        <v>258</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B12" s="6"/>
       <c r="C12" s="12" t="s">
         <v>0</v>
       </c>
@@ -2520,448 +2519,383 @@
       <c r="E12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="28">
-        <v>60988</v>
+        <v>63428</v>
       </c>
       <c r="E13" s="28">
         <f>D13*1.2</f>
-        <v>73185.599999999991</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>76113.599999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D14" s="28">
-        <v>61907</v>
+        <v>64383</v>
       </c>
       <c r="E14" s="28">
         <f t="shared" ref="E14:E25" si="0">D14*1.2</f>
-        <v>74288.399999999994</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
+        <v>77259.599999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D15" s="28">
-        <v>78745</v>
+        <v>81895</v>
       </c>
       <c r="E15" s="28">
         <f t="shared" si="0"/>
-        <v>94494</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
+        <v>98274</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="28">
-        <v>126496</v>
+        <v>131556</v>
       </c>
       <c r="E16" s="28">
         <f t="shared" si="0"/>
-        <v>151795.19999999998</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>157867.19999999998</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D17" s="28">
-        <v>262296</v>
+        <v>272788</v>
       </c>
       <c r="E17" s="28">
         <f t="shared" si="0"/>
-        <v>314755.20000000001</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>327345.59999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D18" s="28">
-        <v>146662</v>
+        <v>152528</v>
       </c>
       <c r="E18" s="28">
         <f t="shared" si="0"/>
-        <v>175994.4</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>183033.60000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>72</v>
-      </c>
       <c r="D19" s="28">
-        <v>85904</v>
+        <v>89340</v>
       </c>
       <c r="E19" s="28">
         <f t="shared" si="0"/>
-        <v>103084.8</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>107208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="D20" s="28">
-        <v>88266</v>
+        <v>91797</v>
       </c>
       <c r="E20" s="28">
         <f t="shared" si="0"/>
-        <v>105919.2</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>110156.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D21" s="28">
-        <v>92882</v>
+        <v>96597</v>
       </c>
       <c r="E21" s="28">
         <f t="shared" si="0"/>
-        <v>111458.4</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>115916.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D22" s="28">
-        <v>98222</v>
+        <v>102151</v>
       </c>
       <c r="E22" s="28">
         <f t="shared" si="0"/>
-        <v>117866.4</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>122581.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D23" s="28">
-        <v>101212</v>
+        <v>105260</v>
       </c>
       <c r="E23" s="28">
         <f t="shared" si="0"/>
-        <v>121454.39999999999</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>126312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="28">
-        <v>42359</v>
+        <v>44053</v>
       </c>
       <c r="E24" s="28">
         <f t="shared" si="0"/>
-        <v>50830.799999999996</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>52863.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="28">
-        <v>43280</v>
-      </c>
-      <c r="E25" s="28">
+      <c r="B25" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="31">
+        <v>48500</v>
+      </c>
+      <c r="E25" s="31">
         <f t="shared" si="0"/>
-        <v>51936</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="14" customFormat="1" ht="21" customHeight="1">
+        <v>58200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="14" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="28">
-        <v>167109</v>
-      </c>
-      <c r="E26" s="28">
+      <c r="B26" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="31">
+        <v>173793</v>
+      </c>
+      <c r="E26" s="31">
         <f>D26*1.2</f>
-        <v>200530.8</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="14" customFormat="1" ht="21" customHeight="1">
+        <v>208551.6</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" s="14" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="D27" s="28">
-        <v>175466</v>
+        <v>182485</v>
       </c>
       <c r="E27" s="28">
         <f t="shared" ref="E27:E29" si="1">D27*1.2</f>
-        <v>210559.19999999998</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="14" customFormat="1" ht="21" customHeight="1">
+        <v>218982</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" s="14" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D28" s="28">
-        <v>177865</v>
-      </c>
-      <c r="E28" s="28">
+      <c r="B28" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="31">
+        <v>184980</v>
+      </c>
+      <c r="E28" s="31">
         <f t="shared" si="1"/>
-        <v>213438</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="14" customFormat="1" ht="21" customHeight="1">
+        <v>221976</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" s="14" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D29" s="28">
-        <v>186241</v>
+        <v>193691</v>
       </c>
       <c r="E29" s="28">
         <f t="shared" si="1"/>
-        <v>223489.19999999998</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>232429.19999999998</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D30" s="28">
-        <v>70971</v>
+        <v>73810</v>
       </c>
       <c r="E30" s="28">
         <f>D30*1.2</f>
-        <v>85165.2</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>88572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D31" s="28">
-        <v>126496</v>
+        <v>131556</v>
       </c>
       <c r="E31" s="28">
         <f t="shared" ref="E31:E35" si="2">D31*1.2</f>
-        <v>151795.19999999998</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="6" customFormat="1" ht="19.5" customHeight="1">
+        <v>157867.19999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="21" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D32" s="28">
-        <v>242076</v>
+        <v>251759</v>
       </c>
       <c r="E32" s="28">
         <f t="shared" si="2"/>
-        <v>290491.2</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" ht="19.5" customHeight="1">
+        <v>302110.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="21" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D33" s="28">
-        <v>303918</v>
+        <v>316075</v>
       </c>
       <c r="E33" s="28">
         <f t="shared" si="2"/>
-        <v>364701.6</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" ht="19.5" customHeight="1">
+        <v>379290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="21" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D34" s="28">
-        <v>309318</v>
+        <v>321691</v>
       </c>
       <c r="E34" s="28">
         <f t="shared" si="2"/>
-        <v>371181.6</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" ht="19.5" customHeight="1">
+        <v>386029.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="21" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D35" s="28">
-        <v>320794</v>
+        <v>333626</v>
       </c>
       <c r="E35" s="28">
         <f t="shared" si="2"/>
-        <v>384952.8</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>400351.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="21" t="s">
         <v>17</v>
@@ -2970,36 +2904,30 @@
         <v>27</v>
       </c>
       <c r="D36" s="28">
-        <v>160364</v>
+        <v>166779</v>
       </c>
       <c r="E36" s="28">
         <f>D36*1.2</f>
-        <v>192436.8</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>200134.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="28">
-        <v>251782</v>
+        <v>261853</v>
       </c>
       <c r="E37" s="28">
         <f>D37*1.2</f>
-        <v>302138.39999999997</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>314223.59999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="21" t="s">
         <v>18</v>
@@ -3008,17 +2936,14 @@
         <v>29</v>
       </c>
       <c r="D38" s="28">
-        <v>128384</v>
+        <v>133519</v>
       </c>
       <c r="E38" s="28">
         <f>D38*1.2</f>
-        <v>154060.79999999999</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>160222.79999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="B39" s="9" t="s">
         <v>34</v>
       </c>
@@ -3026,17 +2951,15 @@
         <v>6</v>
       </c>
       <c r="D39" s="28">
-        <v>69329</v>
+        <v>72102</v>
       </c>
       <c r="E39" s="28">
         <f>D39*1.2</f>
-        <v>83194.8</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>86522.4</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="B40" s="9" t="s">
         <v>21</v>
       </c>
@@ -3044,53 +2967,47 @@
         <v>7</v>
       </c>
       <c r="D40" s="28">
-        <v>85176</v>
+        <v>88583</v>
       </c>
       <c r="E40" s="28">
         <f t="shared" ref="E40:E49" si="3">D40*1.2</f>
-        <v>102211.2</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>106299.59999999999</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="B41" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D41" s="28">
-        <v>180913</v>
+        <v>188150</v>
       </c>
       <c r="E41" s="28">
         <f t="shared" si="3"/>
-        <v>217095.6</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>225780</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="B42" s="9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D42" s="28">
-        <v>118770</v>
+        <v>123521</v>
       </c>
       <c r="E42" s="28">
         <f t="shared" si="3"/>
-        <v>142524</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>148225.19999999998</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="B43" s="9" t="s">
         <v>50</v>
       </c>
@@ -3098,17 +3015,15 @@
         <v>51</v>
       </c>
       <c r="D43" s="28">
-        <v>115622</v>
+        <v>120247</v>
       </c>
       <c r="E43" s="28">
         <f t="shared" si="3"/>
-        <v>138746.4</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>144296.4</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="B44" s="9" t="s">
         <v>49</v>
       </c>
@@ -3116,71 +3031,63 @@
         <v>19</v>
       </c>
       <c r="D44" s="28">
-        <v>115622</v>
+        <v>120247</v>
       </c>
       <c r="E44" s="28">
         <f t="shared" si="3"/>
-        <v>138746.4</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>144296.4</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="B45" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="28">
-        <v>163967</v>
+        <v>170526</v>
       </c>
       <c r="E45" s="28">
         <f t="shared" si="3"/>
-        <v>196760.4</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>204631.19999999998</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="B46" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D46" s="28">
-        <v>164927</v>
+        <v>171524</v>
       </c>
       <c r="E46" s="28">
         <f t="shared" si="3"/>
-        <v>197912.4</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>205828.8</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="B47" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D47" s="28">
-        <v>178302</v>
+        <v>185434</v>
       </c>
       <c r="E47" s="28">
         <f t="shared" si="3"/>
-        <v>213962.4</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>222520.8</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="B48" s="9" t="s">
         <v>4</v>
       </c>
@@ -3188,35 +3095,31 @@
         <v>41</v>
       </c>
       <c r="D48" s="28">
-        <v>362702</v>
+        <v>377210</v>
       </c>
       <c r="E48" s="28">
         <f t="shared" si="3"/>
-        <v>435242.39999999997</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>452652</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="2:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="B49" s="9" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D49" s="28">
-        <v>231377</v>
+        <v>240632</v>
       </c>
       <c r="E49" s="28">
         <f t="shared" si="3"/>
-        <v>277652.39999999997</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" s="5" customFormat="1" ht="21.75" customHeight="1">
+        <v>288758.39999999997</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B50" s="9" t="s">
         <v>42</v>
       </c>
@@ -3224,17 +3127,15 @@
         <v>36</v>
       </c>
       <c r="D50" s="28">
-        <v>40388</v>
+        <v>42004</v>
       </c>
       <c r="E50" s="28">
         <f>D50*1.2</f>
-        <v>48465.599999999999</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" s="5" customFormat="1" ht="21.75" customHeight="1">
+        <v>50404.799999999996</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B51" s="9" t="s">
         <v>43</v>
       </c>
@@ -3242,35 +3143,31 @@
         <v>37</v>
       </c>
       <c r="D51" s="28">
-        <v>77642</v>
+        <v>80748</v>
       </c>
       <c r="E51" s="28">
-        <f t="shared" ref="E51:E55" si="4">D51*1.2</f>
-        <v>93170.4</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" s="5" customFormat="1" ht="21.75" customHeight="1">
+        <f t="shared" ref="E51:E54" si="4">D51*1.2</f>
+        <v>96897.599999999991</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B52" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D52" s="28">
-        <v>110332</v>
+        <v>114745</v>
       </c>
       <c r="E52" s="28">
         <f t="shared" si="4"/>
-        <v>132398.39999999999</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" s="5" customFormat="1" ht="21.75" customHeight="1">
+        <v>137694</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B53" s="9" t="s">
         <v>30</v>
       </c>
@@ -3278,1407 +3175,1242 @@
         <v>31</v>
       </c>
       <c r="D53" s="28">
-        <v>355698</v>
+        <v>369926</v>
       </c>
       <c r="E53" s="28">
         <f t="shared" si="4"/>
-        <v>426837.6</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" s="5" customFormat="1" ht="21.75" customHeight="1">
+        <v>443911.2</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B54" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D54" s="28">
-        <v>214584</v>
+        <v>223167</v>
       </c>
       <c r="E54" s="28">
         <f t="shared" si="4"/>
-        <v>257500.79999999999</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B55" s="9" t="s">
-        <v>52</v>
+        <v>267800.39999999997</v>
+      </c>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="2:8" s="5" customFormat="1" ht="24">
+      <c r="B55" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D55" s="28">
-        <v>39279</v>
+        <v>126197</v>
       </c>
       <c r="E55" s="28">
-        <f t="shared" si="4"/>
-        <v>47134.799999999996</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" s="5" customFormat="1" ht="24">
+        <f>D55*1.2</f>
+        <v>151436.4</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="2:8" s="5" customFormat="1" ht="24">
       <c r="B56" s="24" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D56" s="28">
-        <v>121343</v>
+        <v>155003</v>
       </c>
       <c r="E56" s="28">
-        <f>D56*1.2</f>
-        <v>145611.6</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" s="5" customFormat="1" ht="24">
+        <f t="shared" ref="E56:E59" si="5">D56*1.2</f>
+        <v>186003.6</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:8" s="5" customFormat="1" ht="24">
       <c r="B57" s="24" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D57" s="28">
-        <v>149041</v>
+        <v>197547</v>
       </c>
       <c r="E57" s="28">
-        <f t="shared" ref="E57:E60" si="5">D57*1.2</f>
-        <v>178849.19999999998</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" s="5" customFormat="1" ht="24">
+        <f t="shared" si="5"/>
+        <v>237056.4</v>
+      </c>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="2:8" s="5" customFormat="1" ht="24">
       <c r="B58" s="24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="D58" s="28">
-        <v>189949</v>
+        <v>262520</v>
       </c>
       <c r="E58" s="28">
         <f t="shared" si="5"/>
-        <v>227938.8</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" s="5" customFormat="1" ht="24">
+        <v>315024</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:8" s="5" customFormat="1" ht="27.75" customHeight="1">
       <c r="B59" s="24" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D59" s="28">
-        <v>252423</v>
+        <v>557601</v>
       </c>
       <c r="E59" s="28">
         <f t="shared" si="5"/>
-        <v>302907.59999999998</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" s="5" customFormat="1" ht="27.75" customHeight="1">
+        <v>669121.19999999995</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:8" s="5" customFormat="1" ht="25.5">
       <c r="B60" s="24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="D60" s="28">
-        <v>536155</v>
+        <v>282865</v>
       </c>
       <c r="E60" s="28">
-        <f t="shared" si="5"/>
-        <v>643386</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" s="5" customFormat="1" ht="25.5">
+        <f>D60*1.2</f>
+        <v>339438</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="2:8" s="5" customFormat="1" ht="25.5">
       <c r="B61" s="24" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="D61" s="28">
-        <v>271986</v>
+        <v>173885</v>
       </c>
       <c r="E61" s="28">
         <f>D61*1.2</f>
-        <v>326383.2</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" s="5" customFormat="1" ht="25.5">
-      <c r="B62" s="24" t="s">
-        <v>32</v>
+        <v>208662</v>
+      </c>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="2:8" s="5" customFormat="1" ht="22.5">
+      <c r="B62" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D62" s="28">
-        <v>167197</v>
+        <v>41685</v>
       </c>
       <c r="E62" s="28">
         <f>D62*1.2</f>
-        <v>200636.4</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" s="5" customFormat="1" ht="22.5">
+        <v>50022</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:8" s="5" customFormat="1" ht="21.75">
       <c r="B63" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="D63" s="28">
-        <v>40082</v>
+        <v>66848</v>
       </c>
       <c r="E63" s="28">
-        <f>D63*1.2</f>
-        <v>48098.400000000001</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" s="5" customFormat="1" ht="21.75">
+        <f t="shared" ref="E63:E68" si="6">D63*1.2</f>
+        <v>80217.599999999991</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="2:8" s="5" customFormat="1" ht="22.5">
       <c r="B64" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="D64" s="28">
-        <v>64277</v>
+        <v>84608</v>
       </c>
       <c r="E64" s="28">
-        <f t="shared" ref="E64:E69" si="6">D64*1.2</f>
-        <v>77132.399999999994</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" s="5" customFormat="1" ht="22.5">
+        <f t="shared" si="6"/>
+        <v>101529.59999999999</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="2:8" s="5" customFormat="1" ht="21.75">
       <c r="B65" s="9" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D65" s="28">
-        <v>81354</v>
+        <v>69142</v>
       </c>
       <c r="E65" s="28">
         <f t="shared" si="6"/>
-        <v>97624.8</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" s="5" customFormat="1" ht="21.75">
+        <v>82970.399999999994</v>
+      </c>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="2:8" s="5" customFormat="1" ht="21.75">
       <c r="B66" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" s="28">
-        <v>66483</v>
+        <v>93543</v>
       </c>
       <c r="E66" s="28">
         <f t="shared" si="6"/>
-        <v>79779.599999999991</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" s="5" customFormat="1" ht="21.75">
+        <v>112251.59999999999</v>
+      </c>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="2:8" s="5" customFormat="1" ht="21.75">
       <c r="B67" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" s="28">
-        <v>89945</v>
+        <v>117730</v>
       </c>
       <c r="E67" s="28">
         <f t="shared" si="6"/>
-        <v>107934</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" s="5" customFormat="1" ht="21.75">
+        <v>141276</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="2:8" s="5" customFormat="1" ht="21.75">
       <c r="B68" s="9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68" s="28">
-        <v>113202</v>
+        <v>152602</v>
       </c>
       <c r="E68" s="28">
         <f t="shared" si="6"/>
-        <v>135842.4</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" s="5" customFormat="1" ht="21.75">
-      <c r="B69" s="9" t="s">
-        <v>44</v>
+        <v>183122.4</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="2:8" s="5" customFormat="1" ht="24.75" customHeight="1">
+      <c r="B69" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D69" s="28">
-        <v>146733</v>
+        <v>201550</v>
       </c>
       <c r="E69" s="28">
-        <f t="shared" si="6"/>
-        <v>176079.6</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" s="5" customFormat="1" ht="24.75" customHeight="1">
+        <f>D69*1.2</f>
+        <v>241860</v>
+      </c>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="2:8" s="5" customFormat="1" ht="24.75" customHeight="1">
       <c r="B70" s="24" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="D70" s="28">
-        <v>193798</v>
+        <v>203415</v>
       </c>
       <c r="E70" s="28">
-        <f>D70*1.2</f>
-        <v>232557.6</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" s="5" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B71" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D71" s="28">
-        <v>195591</v>
-      </c>
-      <c r="E71" s="28">
-        <f t="shared" ref="E71:E81" si="7">D71*1.2</f>
-        <v>234709.19999999998</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" s="5" customFormat="1" ht="24" customHeight="1">
+        <f t="shared" ref="E70:E80" si="7">D70*1.2</f>
+        <v>244098</v>
+      </c>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="2:8" s="5" customFormat="1" ht="24.75" customHeight="1">
+      <c r="B71" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" s="31">
+        <v>550160</v>
+      </c>
+      <c r="E71" s="31">
+        <f t="shared" si="7"/>
+        <v>660192</v>
+      </c>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="2:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="B72" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D72" s="28">
-        <v>261732</v>
+        <v>272201</v>
       </c>
       <c r="E72" s="28">
         <f t="shared" si="7"/>
-        <v>314078.39999999997</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" s="5" customFormat="1" ht="24" customHeight="1">
+        <v>326641.2</v>
+      </c>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="2:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="B73" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D73" s="28">
-        <v>370176</v>
+        <v>384983</v>
       </c>
       <c r="E73" s="28">
         <f t="shared" si="7"/>
-        <v>444211.20000000001</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" s="5" customFormat="1" ht="24" customHeight="1">
+        <v>461979.6</v>
+      </c>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="2:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="B74" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D74" s="28">
-        <v>99966</v>
+        <v>133975</v>
       </c>
       <c r="E74" s="28">
         <f t="shared" si="7"/>
-        <v>119959.2</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" s="5" customFormat="1" ht="24" customHeight="1">
+        <v>160770</v>
+      </c>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="2:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="B75" s="24" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D75" s="28">
-        <v>198609</v>
+        <v>195866</v>
       </c>
       <c r="E75" s="28">
         <f t="shared" si="7"/>
-        <v>238330.8</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" s="5" customFormat="1" ht="24" customHeight="1">
+        <v>235039.19999999998</v>
+      </c>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="2:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="B76" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D76" s="28">
-        <v>188333</v>
+        <v>319050</v>
       </c>
       <c r="E76" s="28">
         <f t="shared" si="7"/>
-        <v>225999.6</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" s="5" customFormat="1" ht="24" customHeight="1">
+        <v>382860</v>
+      </c>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="2:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="B77" s="24" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D77" s="28">
-        <v>306779</v>
+        <v>97637</v>
       </c>
       <c r="E77" s="28">
         <f t="shared" si="7"/>
-        <v>368134.8</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" s="5" customFormat="1" ht="24" customHeight="1">
+        <v>117164.4</v>
+      </c>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="2:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="B78" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D78" s="28">
-        <v>93882</v>
+        <v>154353</v>
       </c>
       <c r="E78" s="28">
         <f t="shared" si="7"/>
-        <v>112658.4</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" s="5" customFormat="1" ht="24" customHeight="1">
+        <v>185223.6</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="2:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="B79" s="24" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D79" s="28">
-        <v>148416</v>
+        <v>192783</v>
       </c>
       <c r="E79" s="28">
         <f t="shared" si="7"/>
-        <v>178099.19999999998</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" s="5" customFormat="1" ht="24" customHeight="1">
+        <v>231339.6</v>
+      </c>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="2:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="B80" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D80" s="28">
-        <v>185368</v>
+        <v>278847</v>
       </c>
       <c r="E80" s="28">
         <f t="shared" si="7"/>
-        <v>222441.60000000001</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="B81" s="24" t="s">
-        <v>93</v>
+        <v>334616.39999999997</v>
+      </c>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B81" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="D81" s="28">
-        <v>268122</v>
+        <v>89279</v>
       </c>
       <c r="E81" s="28">
-        <f t="shared" si="7"/>
-        <v>321746.39999999997</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="5" customFormat="1" ht="18.75" customHeight="1">
+        <f>D81*1.2</f>
+        <v>107134.8</v>
+      </c>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="B82" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D82" s="28">
-        <v>85845</v>
+        <v>120120</v>
       </c>
       <c r="E82" s="28">
         <f>D82*1.2</f>
-        <v>103014</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="B83" s="9" t="s">
-        <v>236</v>
+        <v>144144</v>
+      </c>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" s="5" customFormat="1" ht="15">
+      <c r="A83" s="10"/>
+      <c r="B83" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D83" s="28">
-        <v>115500</v>
+        <v>81568</v>
       </c>
       <c r="E83" s="28">
         <f>D83*1.2</f>
-        <v>138600</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="5" customFormat="1" ht="15">
+        <v>97881.599999999991</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A84" s="10"/>
-      <c r="B84" s="24" t="s">
-        <v>213</v>
+      <c r="B84" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D84" s="28">
-        <v>78431</v>
+        <v>200255</v>
       </c>
       <c r="E84" s="28">
-        <f>D84*1.2</f>
-        <v>94117.2</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <f t="shared" ref="E84:E88" si="8">D84*1.2</f>
+        <v>240306</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A85" s="10"/>
       <c r="B85" s="9" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D85" s="28">
-        <v>192553</v>
+        <v>174864</v>
       </c>
       <c r="E85" s="28">
-        <f t="shared" ref="E85:E89" si="8">D85*1.2</f>
-        <v>231063.6</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <f t="shared" si="8"/>
+        <v>209836.79999999999</v>
+      </c>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A86" s="10"/>
       <c r="B86" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D86" s="28">
-        <v>168138</v>
+        <v>206688</v>
       </c>
       <c r="E86" s="28">
         <f t="shared" si="8"/>
-        <v>201765.6</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>248025.59999999998</v>
+      </c>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A87" s="10"/>
       <c r="B87" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D87" s="28">
-        <v>198738</v>
+        <v>252077</v>
       </c>
       <c r="E87" s="28">
         <f t="shared" si="8"/>
-        <v>238485.59999999998</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>302492.39999999997</v>
+      </c>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A88" s="10"/>
       <c r="B88" s="9" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D88" s="28">
-        <v>242382</v>
+        <v>339404</v>
       </c>
       <c r="E88" s="28">
         <f t="shared" si="8"/>
-        <v>290858.39999999997</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A89" s="10"/>
+        <v>407284.8</v>
+      </c>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" ht="15">
       <c r="B89" s="9" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>240</v>
+        <v>119</v>
       </c>
       <c r="D89" s="28">
-        <v>326350</v>
+        <v>100428</v>
       </c>
       <c r="E89" s="28">
-        <f t="shared" si="8"/>
-        <v>391620</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15">
+        <f>D89*1.2</f>
+        <v>120513.59999999999</v>
+      </c>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8" ht="15">
       <c r="B90" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D90" s="28">
-        <v>96565</v>
+        <v>100428</v>
       </c>
       <c r="E90" s="28">
-        <f>D90*1.2</f>
-        <v>115878</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15">
+        <f t="shared" ref="E90:E116" si="9">D90*1.2</f>
+        <v>120513.59999999999</v>
+      </c>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" ht="15">
       <c r="B91" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D91" s="28">
-        <v>96565</v>
+        <v>121627</v>
       </c>
       <c r="E91" s="28">
-        <f t="shared" ref="E91:E117" si="9">D91*1.2</f>
-        <v>115878</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15">
+        <f t="shared" si="9"/>
+        <v>145952.4</v>
+      </c>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" ht="15">
       <c r="B92" s="9" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="D92" s="28">
-        <v>116949</v>
+        <v>124328</v>
       </c>
       <c r="E92" s="28">
         <f t="shared" si="9"/>
-        <v>140338.79999999999</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15">
+        <v>149193.60000000001</v>
+      </c>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" ht="15">
       <c r="B93" s="9" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="D93" s="28">
-        <v>119546</v>
+        <v>106017</v>
       </c>
       <c r="E93" s="28">
         <f t="shared" si="9"/>
-        <v>143455.19999999998</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15">
+        <v>127220.4</v>
+      </c>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" ht="15">
       <c r="B94" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D94" s="28">
-        <v>101939</v>
+        <v>127186</v>
       </c>
       <c r="E94" s="28">
         <f t="shared" si="9"/>
-        <v>122326.79999999999</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15">
+        <v>152623.19999999998</v>
+      </c>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8" ht="15">
       <c r="B95" s="9" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="D95" s="28">
-        <v>122294</v>
+        <v>130538</v>
       </c>
       <c r="E95" s="28">
         <f t="shared" si="9"/>
-        <v>146752.79999999999</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15">
+        <v>156645.6</v>
+      </c>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" ht="15">
       <c r="B96" s="9" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="D96" s="28">
-        <v>125517</v>
+        <v>111905</v>
       </c>
       <c r="E96" s="28">
         <f t="shared" si="9"/>
-        <v>150620.4</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" ht="15">
+        <v>134286</v>
+      </c>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="2:8" ht="15">
       <c r="B97" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D97" s="28">
-        <v>107601</v>
+        <v>61254</v>
       </c>
       <c r="E97" s="28">
         <f t="shared" si="9"/>
-        <v>129121.2</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" ht="15">
+        <v>73504.800000000003</v>
+      </c>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="2:8" ht="15">
       <c r="B98" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D98" s="28">
-        <v>58898</v>
+        <v>61254</v>
       </c>
       <c r="E98" s="28">
         <f t="shared" si="9"/>
-        <v>70677.599999999991</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" ht="15">
+        <v>73504.800000000003</v>
+      </c>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="2:8" ht="15">
       <c r="B99" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D99" s="28">
-        <v>58898</v>
+        <v>61254</v>
       </c>
       <c r="E99" s="28">
         <f t="shared" si="9"/>
-        <v>70677.599999999991</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15">
+        <v>73504.800000000003</v>
+      </c>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="2:8" ht="15">
       <c r="B100" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D100" s="28">
-        <v>58898</v>
+        <v>70542</v>
       </c>
       <c r="E100" s="28">
         <f t="shared" si="9"/>
-        <v>70677.599999999991</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" ht="15">
+        <v>84650.4</v>
+      </c>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="2:8" ht="15">
       <c r="B101" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D101" s="28">
-        <v>67829</v>
+        <v>61254</v>
       </c>
       <c r="E101" s="28">
         <f t="shared" si="9"/>
-        <v>81394.8</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" ht="15">
+        <v>73504.800000000003</v>
+      </c>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="2:8" ht="15">
       <c r="B102" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D102" s="28">
-        <v>58898</v>
+        <v>70542</v>
       </c>
       <c r="E102" s="28">
         <f t="shared" si="9"/>
-        <v>70677.599999999991</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15">
+        <v>84650.4</v>
+      </c>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="2:8" ht="15">
       <c r="B103" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D103" s="28">
-        <v>67829</v>
+        <v>70677</v>
       </c>
       <c r="E103" s="28">
         <f t="shared" si="9"/>
-        <v>81394.8</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" ht="15">
+        <v>84812.4</v>
+      </c>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="2:8" ht="15">
       <c r="B104" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D104" s="28">
-        <v>67959</v>
+        <v>164916</v>
       </c>
       <c r="E104" s="28">
         <f t="shared" si="9"/>
-        <v>81550.8</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" ht="15">
+        <v>197899.19999999998</v>
+      </c>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="2:8" ht="15">
       <c r="B105" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D105" s="28">
-        <v>158573</v>
+        <v>47118</v>
       </c>
       <c r="E105" s="28">
         <f t="shared" si="9"/>
-        <v>190287.6</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15">
+        <v>56541.599999999999</v>
+      </c>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="2:8" ht="15">
       <c r="B106" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D106" s="28">
-        <v>45306</v>
+        <v>47118</v>
       </c>
       <c r="E106" s="28">
         <f t="shared" si="9"/>
-        <v>54367.199999999997</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" ht="15">
+        <v>56541.599999999999</v>
+      </c>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="2:8" ht="15">
       <c r="B107" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D107" s="28">
-        <v>45306</v>
+        <v>47118</v>
       </c>
       <c r="E107" s="28">
         <f t="shared" si="9"/>
-        <v>54367.199999999997</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" ht="15">
+        <v>56541.599999999999</v>
+      </c>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="2:8" ht="15">
       <c r="B108" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D108" s="28">
-        <v>45306</v>
+        <v>29449</v>
       </c>
       <c r="E108" s="28">
         <f t="shared" si="9"/>
-        <v>54367.199999999997</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" ht="15">
+        <v>35338.799999999996</v>
+      </c>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="2:8" ht="15">
       <c r="B109" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D109" s="28">
-        <v>28316</v>
+        <v>15313</v>
       </c>
       <c r="E109" s="28">
         <f t="shared" si="9"/>
-        <v>33979.199999999997</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" ht="15">
+        <v>18375.599999999999</v>
+      </c>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="2:8" ht="15">
       <c r="B110" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D110" s="28">
-        <v>14724</v>
+        <v>15313</v>
       </c>
       <c r="E110" s="28">
         <f t="shared" si="9"/>
-        <v>17668.8</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" ht="15">
+        <v>18375.599999999999</v>
+      </c>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="2:8" ht="15">
       <c r="B111" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D111" s="28">
-        <v>14724</v>
+        <v>15313</v>
       </c>
       <c r="E111" s="28">
         <f t="shared" si="9"/>
-        <v>17668.8</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" ht="15">
+        <v>18375.599999999999</v>
+      </c>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="2:8" ht="15">
       <c r="B112" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D112" s="28">
-        <v>14724</v>
+        <v>15313</v>
       </c>
       <c r="E112" s="28">
         <f t="shared" si="9"/>
-        <v>17668.8</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" ht="15">
+        <v>18375.599999999999</v>
+      </c>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="2:8" ht="15">
       <c r="B113" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D113" s="28">
-        <v>14724</v>
+        <v>11398</v>
       </c>
       <c r="E113" s="28">
         <f t="shared" si="9"/>
-        <v>17668.8</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" ht="15">
+        <v>13677.6</v>
+      </c>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="2:8" ht="15">
       <c r="B114" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D114" s="28">
-        <v>10960</v>
+        <v>12220</v>
       </c>
       <c r="E114" s="28">
         <f t="shared" si="9"/>
-        <v>13152</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" ht="15">
+        <v>14664</v>
+      </c>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="2:8" ht="15">
       <c r="B115" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D115" s="28">
-        <v>11750</v>
+        <v>13136</v>
       </c>
       <c r="E115" s="28">
         <f t="shared" si="9"/>
-        <v>14100</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" ht="15">
+        <v>15763.199999999999</v>
+      </c>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="2:8" ht="15">
       <c r="B116" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D116" s="28">
-        <v>12631</v>
+        <v>14135</v>
       </c>
       <c r="E116" s="28">
         <f t="shared" si="9"/>
-        <v>15157.199999999999</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" ht="15">
+        <v>16962</v>
+      </c>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="2:8" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="B117" s="9" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D117" s="28">
-        <v>13591</v>
+        <v>57737</v>
       </c>
       <c r="E117" s="28">
-        <f t="shared" si="9"/>
-        <v>16309.199999999999</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" s="5" customFormat="1" ht="17.25" customHeight="1">
+        <f>D117*1.2</f>
+        <v>69284.399999999994</v>
+      </c>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="2:8" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="B118" s="9" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D118" s="28">
-        <v>55516</v>
+        <v>96592</v>
       </c>
       <c r="E118" s="28">
-        <f>D118*1.2</f>
-        <v>66619.199999999997</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" s="5" customFormat="1" ht="17.25" customHeight="1">
+        <f t="shared" ref="E118:E120" si="10">D118*1.2</f>
+        <v>115910.39999999999</v>
+      </c>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="2:8" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="B119" s="9" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D119" s="28">
-        <v>92877</v>
+        <v>96592</v>
       </c>
       <c r="E119" s="28">
-        <f t="shared" ref="E119:E121" si="10">D119*1.2</f>
-        <v>111452.4</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" s="5" customFormat="1" ht="17.25" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>115910.39999999999</v>
+      </c>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="2:8" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="B120" s="9" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D120" s="28">
-        <v>92877</v>
+        <v>235594</v>
       </c>
       <c r="E120" s="28">
         <f t="shared" si="10"/>
-        <v>111452.4</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" s="5" customFormat="1" ht="17.25" customHeight="1">
+        <v>282712.8</v>
+      </c>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="2:8" s="5" customFormat="1" ht="15">
       <c r="B121" s="9" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="C121" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D121" s="28">
+        <v>117797</v>
+      </c>
+      <c r="E121" s="28">
+        <f>D121*1.2</f>
+        <v>141356.4</v>
+      </c>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="2:8" s="5" customFormat="1" ht="15">
+      <c r="B122" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D122" s="28">
+        <v>47426</v>
+      </c>
+      <c r="E122" s="28">
+        <f t="shared" ref="E122:E129" si="11">D122*1.2</f>
+        <v>56911.199999999997</v>
+      </c>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="2:8" s="5" customFormat="1" ht="15">
+      <c r="B123" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D121" s="28">
-        <v>226533</v>
-      </c>
-      <c r="E121" s="28">
-        <f t="shared" si="10"/>
-        <v>271839.59999999998</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" s="5" customFormat="1" ht="15">
-      <c r="B122" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D122" s="28">
-        <v>113266</v>
-      </c>
-      <c r="E122" s="28">
-        <f>D122*1.2</f>
-        <v>135919.19999999998</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" s="5" customFormat="1" ht="15">
-      <c r="B123" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>182</v>
-      </c>
       <c r="D123" s="28">
-        <v>45602</v>
+        <v>135527</v>
       </c>
       <c r="E123" s="28">
-        <f t="shared" ref="E123:E130" si="11">D123*1.2</f>
-        <v>54722.400000000001</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" s="5" customFormat="1" ht="15">
+        <f t="shared" si="11"/>
+        <v>162632.4</v>
+      </c>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="2:8" s="5" customFormat="1" ht="15">
       <c r="B124" s="9" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D124" s="28">
-        <v>130314</v>
+        <v>167387</v>
       </c>
       <c r="E124" s="28">
         <f t="shared" si="11"/>
-        <v>156376.79999999999</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" s="5" customFormat="1" ht="15">
+        <v>200864.4</v>
+      </c>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="2:8" ht="15">
       <c r="B125" s="9" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D125" s="28">
-        <v>160949</v>
+        <v>17671</v>
       </c>
       <c r="E125" s="28">
         <f t="shared" si="11"/>
-        <v>193138.8</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" ht="15">
+        <v>21205.200000000001</v>
+      </c>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="2:8" ht="15">
       <c r="B126" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D126" s="28">
-        <v>16991</v>
+        <v>17671</v>
       </c>
       <c r="E126" s="28">
         <f t="shared" si="11"/>
-        <v>20389.2</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" ht="15">
+        <v>21205.200000000001</v>
+      </c>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="2:8" ht="15">
       <c r="B127" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D127" s="28">
-        <v>16991</v>
+        <v>23559</v>
       </c>
       <c r="E127" s="28">
         <f t="shared" si="11"/>
-        <v>20389.2</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" ht="15">
+        <v>28270.799999999999</v>
+      </c>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="2:8" ht="15">
       <c r="B128" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D128" s="28">
-        <v>22653</v>
+        <v>29449</v>
       </c>
       <c r="E128" s="28">
         <f t="shared" si="11"/>
-        <v>27183.599999999999</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" ht="15">
+        <v>35338.799999999996</v>
+      </c>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="2:8" ht="15">
       <c r="B129" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D129" s="28">
-        <v>28316</v>
+        <v>35339</v>
       </c>
       <c r="E129" s="28">
         <f t="shared" si="11"/>
-        <v>33979.199999999997</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" ht="15">
-      <c r="B130" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D130" s="28">
-        <v>33980</v>
-      </c>
-      <c r="E130" s="28">
-        <f t="shared" si="11"/>
-        <v>40776</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>256</v>
-      </c>
+        <v>42406.799999999996</v>
+      </c>
+      <c r="H129" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4686,7 +4418,7 @@
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"a_AlbionicTitulInfl,обычный"Husqvarna Construction Products
-2021</oddFooter>
+2022</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/server/prices/husqvarna/Products_HCP.xlsx
+++ b/server/prices/husqvarna/Products_HCP.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Готовая продукция HCP" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="248">
   <si>
     <t>Код изделия</t>
   </si>
@@ -1429,11 +1419,20 @@
   <si>
     <t>5996098-01</t>
   </si>
+  <si>
+    <t>shlifovanie-betona</t>
+  </si>
+  <si>
+    <t>benzoinstrument_otreznye-mashiny</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="25">
     <font>
       <sz val="10"/>
@@ -1601,7 +1600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,14 +1789,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1818,13 +1809,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20121" name="Picture 3" descr="\\Stendahls@Stendahls Server\Server 6\ Dimas 640\640-0083 HU konferens\BILDER\Dimaslogo.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2BA0F5-41A9-4EB4-BAE6-112CE227117C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1025" name="Picture 3" descr="\\Stendahls@Stendahls Server\Server 6\ Dimas 640\640-0083 HU konferens\BILDER\Dimaslogo.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1841,11 +1826,6 @@
               </a:srgbClr>
             </a:clrTo>
           </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
         </a:blip>
         <a:srcRect/>
         <a:stretch>
@@ -1854,35 +1834,19 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="295275" y="18573750"/>
+          <a:off x="295275" y="13563600"/>
           <a:ext cx="2743200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525">
           <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1902,13 +1866,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20122" name="Picture 4" descr="\\Stendahls@Stendahls Server\Server 6\ Dimas 640\640-0083 HU konferens\BILDER\Dimaslogo.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D385545B-2BCC-485E-97AD-7DCFA7119F43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="Picture 4" descr="\\Stendahls@Stendahls Server\Server 6\ Dimas 640\640-0083 HU konferens\BILDER\Dimaslogo.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1925,11 +1883,6 @@
               </a:srgbClr>
             </a:clrTo>
           </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
         </a:blip>
         <a:srcRect/>
         <a:stretch>
@@ -1938,35 +1891,19 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="295275" y="18573750"/>
+          <a:off x="295275" y="13563600"/>
           <a:ext cx="2743200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525">
           <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1986,25 +1923,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20124" name="Picture 19" descr="HCP_RGB%20small">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B3483F1-2337-408D-80B7-ACE95616A0C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1027" name="Picture 19" descr="HCP_RGB%20small"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2019,28 +1944,12 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525">
           <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2344,11 +2253,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -2375,11 +2284,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -2397,11 +2306,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2519,7 +2428,9 @@
       <c r="E12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="4"/>
@@ -2730,6 +2641,9 @@
         <f t="shared" si="0"/>
         <v>58200</v>
       </c>
+      <c r="F25" s="6" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="26" spans="1:8" s="14" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="6"/>
@@ -2743,8 +2657,11 @@
         <v>173793</v>
       </c>
       <c r="E26" s="31">
-        <f>D26*1.2</f>
+        <f t="shared" ref="E26:E39" si="1">D26*1.2</f>
         <v>208551.6</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="H26" s="6"/>
     </row>
@@ -2760,7 +2677,7 @@
         <v>182485</v>
       </c>
       <c r="E27" s="28">
-        <f t="shared" ref="E27:E29" si="1">D27*1.2</f>
+        <f t="shared" si="1"/>
         <v>218982</v>
       </c>
       <c r="H27" s="6"/>
@@ -2780,6 +2697,9 @@
         <f t="shared" si="1"/>
         <v>221976</v>
       </c>
+      <c r="F28" s="14" t="s">
+        <v>246</v>
+      </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" s="14" customFormat="1" ht="21" customHeight="1">
@@ -2811,7 +2731,7 @@
         <v>73810</v>
       </c>
       <c r="E30" s="28">
-        <f>D30*1.2</f>
+        <f t="shared" si="1"/>
         <v>88572</v>
       </c>
     </row>
@@ -2827,7 +2747,7 @@
         <v>131556</v>
       </c>
       <c r="E31" s="28">
-        <f t="shared" ref="E31:E35" si="2">D31*1.2</f>
+        <f t="shared" si="1"/>
         <v>157867.19999999998</v>
       </c>
     </row>
@@ -2843,7 +2763,7 @@
         <v>251759</v>
       </c>
       <c r="E32" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>302110.8</v>
       </c>
     </row>
@@ -2859,7 +2779,7 @@
         <v>316075</v>
       </c>
       <c r="E33" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>379290</v>
       </c>
     </row>
@@ -2875,7 +2795,7 @@
         <v>321691</v>
       </c>
       <c r="E34" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>386029.2</v>
       </c>
     </row>
@@ -2891,7 +2811,7 @@
         <v>333626</v>
       </c>
       <c r="E35" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>400351.2</v>
       </c>
     </row>
@@ -2907,7 +2827,7 @@
         <v>166779</v>
       </c>
       <c r="E36" s="28">
-        <f>D36*1.2</f>
+        <f t="shared" si="1"/>
         <v>200134.8</v>
       </c>
     </row>
@@ -2923,7 +2843,7 @@
         <v>261853</v>
       </c>
       <c r="E37" s="28">
-        <f>D37*1.2</f>
+        <f t="shared" si="1"/>
         <v>314223.59999999998</v>
       </c>
     </row>
@@ -2939,7 +2859,7 @@
         <v>133519</v>
       </c>
       <c r="E38" s="28">
-        <f>D38*1.2</f>
+        <f t="shared" si="1"/>
         <v>160222.79999999999</v>
       </c>
     </row>
@@ -2954,7 +2874,7 @@
         <v>72102</v>
       </c>
       <c r="E39" s="28">
-        <f>D39*1.2</f>
+        <f t="shared" si="1"/>
         <v>86522.4</v>
       </c>
       <c r="H39" s="6"/>
@@ -2970,7 +2890,7 @@
         <v>88583</v>
       </c>
       <c r="E40" s="28">
-        <f t="shared" ref="E40:E49" si="3">D40*1.2</f>
+        <f t="shared" ref="E40:E49" si="2">D40*1.2</f>
         <v>106299.59999999999</v>
       </c>
       <c r="H40" s="6"/>
@@ -2986,7 +2906,7 @@
         <v>188150</v>
       </c>
       <c r="E41" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>225780</v>
       </c>
       <c r="H41" s="6"/>
@@ -3002,7 +2922,7 @@
         <v>123521</v>
       </c>
       <c r="E42" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>148225.19999999998</v>
       </c>
       <c r="H42" s="6"/>
@@ -3018,7 +2938,7 @@
         <v>120247</v>
       </c>
       <c r="E43" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>144296.4</v>
       </c>
       <c r="H43" s="6"/>
@@ -3034,7 +2954,7 @@
         <v>120247</v>
       </c>
       <c r="E44" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>144296.4</v>
       </c>
       <c r="H44" s="6"/>
@@ -3050,7 +2970,7 @@
         <v>170526</v>
       </c>
       <c r="E45" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>204631.19999999998</v>
       </c>
       <c r="H45" s="6"/>
@@ -3066,7 +2986,7 @@
         <v>171524</v>
       </c>
       <c r="E46" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>205828.8</v>
       </c>
       <c r="H46" s="6"/>
@@ -3082,7 +3002,7 @@
         <v>185434</v>
       </c>
       <c r="E47" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>222520.8</v>
       </c>
       <c r="H47" s="6"/>
@@ -3098,7 +3018,7 @@
         <v>377210</v>
       </c>
       <c r="E48" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>452652</v>
       </c>
       <c r="H48" s="6"/>
@@ -3114,7 +3034,7 @@
         <v>240632</v>
       </c>
       <c r="E49" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>288758.39999999997</v>
       </c>
       <c r="H49" s="6"/>
@@ -3130,7 +3050,7 @@
         <v>42004</v>
       </c>
       <c r="E50" s="28">
-        <f>D50*1.2</f>
+        <f t="shared" ref="E50:E62" si="3">D50*1.2</f>
         <v>50404.799999999996</v>
       </c>
       <c r="H50" s="6"/>
@@ -3146,7 +3066,7 @@
         <v>80748</v>
       </c>
       <c r="E51" s="28">
-        <f t="shared" ref="E51:E54" si="4">D51*1.2</f>
+        <f t="shared" si="3"/>
         <v>96897.599999999991</v>
       </c>
       <c r="H51" s="6"/>
@@ -3162,7 +3082,7 @@
         <v>114745</v>
       </c>
       <c r="E52" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>137694</v>
       </c>
       <c r="H52" s="6"/>
@@ -3178,7 +3098,7 @@
         <v>369926</v>
       </c>
       <c r="E53" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>443911.2</v>
       </c>
       <c r="H53" s="6"/>
@@ -3194,7 +3114,7 @@
         <v>223167</v>
       </c>
       <c r="E54" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>267800.39999999997</v>
       </c>
       <c r="H54" s="6"/>
@@ -3210,7 +3130,7 @@
         <v>126197</v>
       </c>
       <c r="E55" s="28">
-        <f>D55*1.2</f>
+        <f t="shared" si="3"/>
         <v>151436.4</v>
       </c>
       <c r="H55" s="6"/>
@@ -3226,7 +3146,7 @@
         <v>155003</v>
       </c>
       <c r="E56" s="28">
-        <f t="shared" ref="E56:E59" si="5">D56*1.2</f>
+        <f t="shared" si="3"/>
         <v>186003.6</v>
       </c>
       <c r="H56" s="6"/>
@@ -3242,7 +3162,7 @@
         <v>197547</v>
       </c>
       <c r="E57" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>237056.4</v>
       </c>
       <c r="H57" s="6"/>
@@ -3258,7 +3178,7 @@
         <v>262520</v>
       </c>
       <c r="E58" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>315024</v>
       </c>
       <c r="H58" s="6"/>
@@ -3274,7 +3194,7 @@
         <v>557601</v>
       </c>
       <c r="E59" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>669121.19999999995</v>
       </c>
       <c r="F59" s="1"/>
@@ -3291,7 +3211,7 @@
         <v>282865</v>
       </c>
       <c r="E60" s="28">
-        <f>D60*1.2</f>
+        <f t="shared" si="3"/>
         <v>339438</v>
       </c>
       <c r="H60" s="6"/>
@@ -3307,7 +3227,7 @@
         <v>173885</v>
       </c>
       <c r="E61" s="28">
-        <f>D61*1.2</f>
+        <f t="shared" si="3"/>
         <v>208662</v>
       </c>
       <c r="H61" s="6"/>
@@ -3323,7 +3243,7 @@
         <v>41685</v>
       </c>
       <c r="E62" s="28">
-        <f>D62*1.2</f>
+        <f t="shared" si="3"/>
         <v>50022</v>
       </c>
       <c r="F62" s="1"/>
@@ -3340,7 +3260,7 @@
         <v>66848</v>
       </c>
       <c r="E63" s="28">
-        <f t="shared" ref="E63:E68" si="6">D63*1.2</f>
+        <f t="shared" ref="E63:E68" si="4">D63*1.2</f>
         <v>80217.599999999991</v>
       </c>
       <c r="F63" s="1"/>
@@ -3357,7 +3277,7 @@
         <v>84608</v>
       </c>
       <c r="E64" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>101529.59999999999</v>
       </c>
       <c r="F64" s="1"/>
@@ -3374,7 +3294,7 @@
         <v>69142</v>
       </c>
       <c r="E65" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>82970.399999999994</v>
       </c>
       <c r="H65" s="6"/>
@@ -3390,7 +3310,7 @@
         <v>93543</v>
       </c>
       <c r="E66" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>112251.59999999999</v>
       </c>
       <c r="H66" s="6"/>
@@ -3406,7 +3326,7 @@
         <v>117730</v>
       </c>
       <c r="E67" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>141276</v>
       </c>
       <c r="F67" s="1"/>
@@ -3423,7 +3343,7 @@
         <v>152602</v>
       </c>
       <c r="E68" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>183122.4</v>
       </c>
       <c r="H68" s="6"/>
@@ -3455,7 +3375,7 @@
         <v>203415</v>
       </c>
       <c r="E70" s="28">
-        <f t="shared" ref="E70:E80" si="7">D70*1.2</f>
+        <f t="shared" ref="E70:E80" si="5">D70*1.2</f>
         <v>244098</v>
       </c>
       <c r="H70" s="6"/>
@@ -3471,8 +3391,11 @@
         <v>550160</v>
       </c>
       <c r="E71" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>660192</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="H71" s="6"/>
     </row>
@@ -3487,7 +3410,7 @@
         <v>272201</v>
       </c>
       <c r="E72" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>326641.2</v>
       </c>
       <c r="H72" s="6"/>
@@ -3503,7 +3426,7 @@
         <v>384983</v>
       </c>
       <c r="E73" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>461979.6</v>
       </c>
       <c r="H73" s="6"/>
@@ -3519,7 +3442,7 @@
         <v>133975</v>
       </c>
       <c r="E74" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>160770</v>
       </c>
       <c r="H74" s="6"/>
@@ -3535,7 +3458,7 @@
         <v>195866</v>
       </c>
       <c r="E75" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>235039.19999999998</v>
       </c>
       <c r="H75" s="6"/>
@@ -3551,7 +3474,7 @@
         <v>319050</v>
       </c>
       <c r="E76" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>382860</v>
       </c>
       <c r="H76" s="6"/>
@@ -3567,7 +3490,7 @@
         <v>97637</v>
       </c>
       <c r="E77" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>117164.4</v>
       </c>
       <c r="H77" s="6"/>
@@ -3583,7 +3506,7 @@
         <v>154353</v>
       </c>
       <c r="E78" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185223.6</v>
       </c>
       <c r="H78" s="6"/>
@@ -3599,7 +3522,7 @@
         <v>192783</v>
       </c>
       <c r="E79" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>231339.6</v>
       </c>
       <c r="H79" s="6"/>
@@ -3615,7 +3538,7 @@
         <v>278847</v>
       </c>
       <c r="E80" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>334616.39999999997</v>
       </c>
       <c r="H80" s="6"/>
@@ -3631,7 +3554,7 @@
         <v>89279</v>
       </c>
       <c r="E81" s="28">
-        <f>D81*1.2</f>
+        <f t="shared" ref="E81:E89" si="6">D81*1.2</f>
         <v>107134.8</v>
       </c>
       <c r="H81" s="6"/>
@@ -3647,7 +3570,7 @@
         <v>120120</v>
       </c>
       <c r="E82" s="28">
-        <f>D82*1.2</f>
+        <f t="shared" si="6"/>
         <v>144144</v>
       </c>
       <c r="H82" s="6"/>
@@ -3664,7 +3587,7 @@
         <v>81568</v>
       </c>
       <c r="E83" s="28">
-        <f>D83*1.2</f>
+        <f t="shared" si="6"/>
         <v>97881.599999999991</v>
       </c>
       <c r="F83" s="10"/>
@@ -3682,7 +3605,7 @@
         <v>200255</v>
       </c>
       <c r="E84" s="28">
-        <f t="shared" ref="E84:E88" si="8">D84*1.2</f>
+        <f t="shared" si="6"/>
         <v>240306</v>
       </c>
       <c r="F84" s="10"/>
@@ -3700,7 +3623,7 @@
         <v>174864</v>
       </c>
       <c r="E85" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>209836.79999999999</v>
       </c>
       <c r="H85" s="6"/>
@@ -3717,7 +3640,7 @@
         <v>206688</v>
       </c>
       <c r="E86" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>248025.59999999998</v>
       </c>
       <c r="H86" s="6"/>
@@ -3734,7 +3657,7 @@
         <v>252077</v>
       </c>
       <c r="E87" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>302492.39999999997</v>
       </c>
       <c r="H87" s="6"/>
@@ -3751,7 +3674,7 @@
         <v>339404</v>
       </c>
       <c r="E88" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>407284.8</v>
       </c>
       <c r="H88" s="6"/>
@@ -3767,7 +3690,7 @@
         <v>100428</v>
       </c>
       <c r="E89" s="28">
-        <f>D89*1.2</f>
+        <f t="shared" si="6"/>
         <v>120513.59999999999</v>
       </c>
       <c r="H89" s="6"/>
@@ -3783,7 +3706,7 @@
         <v>100428</v>
       </c>
       <c r="E90" s="28">
-        <f t="shared" ref="E90:E116" si="9">D90*1.2</f>
+        <f t="shared" ref="E90:E116" si="7">D90*1.2</f>
         <v>120513.59999999999</v>
       </c>
       <c r="H90" s="6"/>
@@ -3799,7 +3722,7 @@
         <v>121627</v>
       </c>
       <c r="E91" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>145952.4</v>
       </c>
       <c r="H91" s="6"/>
@@ -3815,7 +3738,7 @@
         <v>124328</v>
       </c>
       <c r="E92" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>149193.60000000001</v>
       </c>
       <c r="H92" s="6"/>
@@ -3831,7 +3754,7 @@
         <v>106017</v>
       </c>
       <c r="E93" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>127220.4</v>
       </c>
       <c r="H93" s="6"/>
@@ -3847,7 +3770,7 @@
         <v>127186</v>
       </c>
       <c r="E94" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>152623.19999999998</v>
       </c>
       <c r="H94" s="6"/>
@@ -3863,7 +3786,7 @@
         <v>130538</v>
       </c>
       <c r="E95" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>156645.6</v>
       </c>
       <c r="H95" s="6"/>
@@ -3879,7 +3802,7 @@
         <v>111905</v>
       </c>
       <c r="E96" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>134286</v>
       </c>
       <c r="H96" s="6"/>
@@ -3895,7 +3818,7 @@
         <v>61254</v>
       </c>
       <c r="E97" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>73504.800000000003</v>
       </c>
       <c r="H97" s="6"/>
@@ -3911,7 +3834,7 @@
         <v>61254</v>
       </c>
       <c r="E98" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>73504.800000000003</v>
       </c>
       <c r="H98" s="6"/>
@@ -3927,7 +3850,7 @@
         <v>61254</v>
       </c>
       <c r="E99" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>73504.800000000003</v>
       </c>
       <c r="H99" s="6"/>
@@ -3943,7 +3866,7 @@
         <v>70542</v>
       </c>
       <c r="E100" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>84650.4</v>
       </c>
       <c r="H100" s="6"/>
@@ -3959,7 +3882,7 @@
         <v>61254</v>
       </c>
       <c r="E101" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>73504.800000000003</v>
       </c>
       <c r="H101" s="6"/>
@@ -3975,7 +3898,7 @@
         <v>70542</v>
       </c>
       <c r="E102" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>84650.4</v>
       </c>
       <c r="H102" s="6"/>
@@ -3991,7 +3914,7 @@
         <v>70677</v>
       </c>
       <c r="E103" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>84812.4</v>
       </c>
       <c r="H103" s="6"/>
@@ -4007,7 +3930,7 @@
         <v>164916</v>
       </c>
       <c r="E104" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>197899.19999999998</v>
       </c>
       <c r="H104" s="6"/>
@@ -4023,7 +3946,7 @@
         <v>47118</v>
       </c>
       <c r="E105" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>56541.599999999999</v>
       </c>
       <c r="H105" s="6"/>
@@ -4039,7 +3962,7 @@
         <v>47118</v>
       </c>
       <c r="E106" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>56541.599999999999</v>
       </c>
       <c r="H106" s="6"/>
@@ -4055,7 +3978,7 @@
         <v>47118</v>
       </c>
       <c r="E107" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>56541.599999999999</v>
       </c>
       <c r="H107" s="6"/>
@@ -4071,7 +3994,7 @@
         <v>29449</v>
       </c>
       <c r="E108" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>35338.799999999996</v>
       </c>
       <c r="H108" s="6"/>
@@ -4087,7 +4010,7 @@
         <v>15313</v>
       </c>
       <c r="E109" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>18375.599999999999</v>
       </c>
       <c r="H109" s="6"/>
@@ -4103,7 +4026,7 @@
         <v>15313</v>
       </c>
       <c r="E110" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>18375.599999999999</v>
       </c>
       <c r="H110" s="6"/>
@@ -4119,7 +4042,7 @@
         <v>15313</v>
       </c>
       <c r="E111" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>18375.599999999999</v>
       </c>
       <c r="H111" s="6"/>
@@ -4135,7 +4058,7 @@
         <v>15313</v>
       </c>
       <c r="E112" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>18375.599999999999</v>
       </c>
       <c r="H112" s="6"/>
@@ -4151,7 +4074,7 @@
         <v>11398</v>
       </c>
       <c r="E113" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>13677.6</v>
       </c>
       <c r="H113" s="6"/>
@@ -4167,7 +4090,7 @@
         <v>12220</v>
       </c>
       <c r="E114" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>14664</v>
       </c>
       <c r="H114" s="6"/>
@@ -4183,7 +4106,7 @@
         <v>13136</v>
       </c>
       <c r="E115" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>15763.199999999999</v>
       </c>
       <c r="H115" s="6"/>
@@ -4199,7 +4122,7 @@
         <v>14135</v>
       </c>
       <c r="E116" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>16962</v>
       </c>
       <c r="H116" s="6"/>
@@ -4231,7 +4154,7 @@
         <v>96592</v>
       </c>
       <c r="E118" s="28">
-        <f t="shared" ref="E118:E120" si="10">D118*1.2</f>
+        <f>D118*1.2</f>
         <v>115910.39999999999</v>
       </c>
       <c r="H118" s="6"/>
@@ -4247,7 +4170,7 @@
         <v>96592</v>
       </c>
       <c r="E119" s="28">
-        <f t="shared" si="10"/>
+        <f>D119*1.2</f>
         <v>115910.39999999999</v>
       </c>
       <c r="H119" s="6"/>
@@ -4263,7 +4186,7 @@
         <v>235594</v>
       </c>
       <c r="E120" s="28">
-        <f t="shared" si="10"/>
+        <f>D120*1.2</f>
         <v>282712.8</v>
       </c>
       <c r="H120" s="6"/>
@@ -4295,7 +4218,7 @@
         <v>47426</v>
       </c>
       <c r="E122" s="28">
-        <f t="shared" ref="E122:E129" si="11">D122*1.2</f>
+        <f t="shared" ref="E122:E129" si="8">D122*1.2</f>
         <v>56911.199999999997</v>
       </c>
       <c r="H122" s="6"/>
@@ -4311,7 +4234,7 @@
         <v>135527</v>
       </c>
       <c r="E123" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>162632.4</v>
       </c>
       <c r="H123" s="6"/>
@@ -4327,7 +4250,7 @@
         <v>167387</v>
       </c>
       <c r="E124" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>200864.4</v>
       </c>
       <c r="H124" s="6"/>
@@ -4343,7 +4266,7 @@
         <v>17671</v>
       </c>
       <c r="E125" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>21205.200000000001</v>
       </c>
       <c r="H125" s="6"/>
@@ -4359,7 +4282,7 @@
         <v>17671</v>
       </c>
       <c r="E126" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>21205.200000000001</v>
       </c>
       <c r="H126" s="6"/>
@@ -4375,7 +4298,7 @@
         <v>23559</v>
       </c>
       <c r="E127" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>28270.799999999999</v>
       </c>
       <c r="H127" s="6"/>
@@ -4391,7 +4314,7 @@
         <v>29449</v>
       </c>
       <c r="E128" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>35338.799999999996</v>
       </c>
       <c r="H128" s="6"/>
@@ -4407,7 +4330,7 @@
         <v>35339</v>
       </c>
       <c r="E129" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>42406.799999999996</v>
       </c>
       <c r="H129" s="6"/>
